--- a/radomics.xlsx
+++ b/radomics.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5052" xr2:uid="{3924A306-6C8C-49E6-8355-138D9FEFB154}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -23,8 +23,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matthias Weinhold</author>
+  </authors>
+  <commentList>
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{C4BCED88-77C3-40F0-B9BC-4B0640E5EA89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Die Komplexität ist hoch für Texturen, die uneinheitlich sind und starke Grauwertschwankungen
+besitzen. Das Feature ist definiert als:</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{5F43E9CC-9A59-4AA3-B0CD-ECF6AB93CC44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Matthias Weinhold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Zone Percentage
+Dieses Feature evaluiert den Anteil der real vorhandenen Zonen an den maximal möglichen
+Zonen (dies entspricht genau der Voxelzahl des ROI). Uniforme ROIs erzeugen einen geringen
+Prozentsatz.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="136">
   <si>
     <t>(2) Histogram - Variance</t>
   </si>
@@ -150,13 +212,295 @@
   </si>
   <si>
     <t>(58) GLRLM - Run-Length Variance</t>
+  </si>
+  <si>
+    <t>totalBlack</t>
+  </si>
+  <si>
+    <t>americaner</t>
+  </si>
+  <si>
+    <t>größte prozentualte Abweichung</t>
+  </si>
+  <si>
+    <t>Nr Radiomics</t>
+  </si>
+  <si>
+    <t>0.3857</t>
+  </si>
+  <si>
+    <t>0.1317</t>
+  </si>
+  <si>
+    <t>0.9342</t>
+  </si>
+  <si>
+    <t>0.7367</t>
+  </si>
+  <si>
+    <t>0.1091</t>
+  </si>
+  <si>
+    <t>0.5000</t>
+  </si>
+  <si>
+    <t>0.5284</t>
+  </si>
+  <si>
+    <t>0.1682</t>
+  </si>
+  <si>
+    <t>0.6250</t>
+  </si>
+  <si>
+    <t>0.0682</t>
+  </si>
+  <si>
+    <t>0.2727</t>
+  </si>
+  <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>0.0282</t>
+  </si>
+  <si>
+    <t>0.1128</t>
+  </si>
+  <si>
+    <t>0.0700</t>
+  </si>
+  <si>
+    <t>0.3459</t>
+  </si>
+  <si>
+    <t>0.1912</t>
+  </si>
+  <si>
+    <t>0.9044</t>
+  </si>
+  <si>
+    <t>0.6172</t>
+  </si>
+  <si>
+    <t>0.1956</t>
+  </si>
+  <si>
+    <t>0.5001</t>
+  </si>
+  <si>
+    <t>0.2053</t>
+  </si>
+  <si>
+    <t>0.2276</t>
+  </si>
+  <si>
+    <t>0.6304</t>
+  </si>
+  <si>
+    <t>0.1226</t>
+  </si>
+  <si>
+    <t>0.4879</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
+    <t>0.0448</t>
+  </si>
+  <si>
+    <t>0.1795</t>
+  </si>
+  <si>
+    <t>0.3231</t>
+  </si>
+  <si>
+    <t>0.2296</t>
+  </si>
+  <si>
+    <t>0.8852</t>
+  </si>
+  <si>
+    <t>0.5407</t>
+  </si>
+  <si>
+    <t>0.2512</t>
+  </si>
+  <si>
+    <t>0.2156</t>
+  </si>
+  <si>
+    <t>0.2576</t>
+  </si>
+  <si>
+    <t>0.1570</t>
+  </si>
+  <si>
+    <t>0.6279</t>
+  </si>
+  <si>
+    <t>0.0504</t>
+  </si>
+  <si>
+    <t>0.2016</t>
+  </si>
+  <si>
+    <t>0.4082</t>
+  </si>
+  <si>
+    <t>0.3182</t>
+  </si>
+  <si>
+    <t>0.2822</t>
+  </si>
+  <si>
+    <t>0.8589</t>
+  </si>
+  <si>
+    <t>0.4112</t>
+  </si>
+  <si>
+    <t>0.2277</t>
+  </si>
+  <si>
+    <t>0.5003</t>
+  </si>
+  <si>
+    <t>0.4123</t>
+  </si>
+  <si>
+    <t>0.3021</t>
+  </si>
+  <si>
+    <t>0.6335</t>
+  </si>
+  <si>
+    <t>0.1216</t>
+  </si>
+  <si>
+    <t>0.6523</t>
+  </si>
+  <si>
+    <t>0.0010</t>
+  </si>
+  <si>
+    <t>0.0580</t>
+  </si>
+  <si>
+    <t>0.2416</t>
+  </si>
+  <si>
+    <t>0.2931</t>
+  </si>
+  <si>
+    <t>0.2753</t>
+  </si>
+  <si>
+    <t>0.3799</t>
+  </si>
+  <si>
+    <t>0.8100</t>
+  </si>
+  <si>
+    <t>0.2233</t>
+  </si>
+  <si>
+    <t>0.5080</t>
+  </si>
+  <si>
+    <t>0.3262</t>
+  </si>
+  <si>
+    <t>0.4024</t>
+  </si>
+  <si>
+    <t>0.6299</t>
+  </si>
+  <si>
+    <t>0.2882</t>
+  </si>
+  <si>
+    <t>0.0430</t>
+  </si>
+  <si>
+    <t>0.6521</t>
+  </si>
+  <si>
+    <t>0.0876</t>
+  </si>
+  <si>
+    <t>0.3578</t>
+  </si>
+  <si>
+    <t>-0.0801</t>
+  </si>
+  <si>
+    <t>0.2590</t>
+  </si>
+  <si>
+    <t>0.4095</t>
+  </si>
+  <si>
+    <t>0.7952</t>
+  </si>
+  <si>
+    <t>0.1796</t>
+  </si>
+  <si>
+    <t>0.4788</t>
+  </si>
+  <si>
+    <t>0.2949</t>
+  </si>
+  <si>
+    <t>0.4255</t>
+  </si>
+  <si>
+    <t>0.6244</t>
+  </si>
+  <si>
+    <t>0.2972</t>
+  </si>
+  <si>
+    <t>0.0932</t>
+  </si>
+  <si>
+    <t>0.3735</t>
+  </si>
+  <si>
+    <t>dummy_plain_long_p10</t>
+  </si>
+  <si>
+    <t>dummy_plain_lat_p10</t>
+  </si>
+  <si>
+    <t>dummy_plain_diag_p10</t>
+  </si>
+  <si>
+    <t>dummy_caro_p10</t>
+  </si>
+  <si>
+    <t>dummy_plain_long_p5</t>
+  </si>
+  <si>
+    <t>dummy_plain_lat_p5</t>
+  </si>
+  <si>
+    <t>dummy_plain_diag_p5</t>
+  </si>
+  <si>
+    <t>dummy_caro_p5</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +508,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,19 +577,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -205,6 +696,30 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A5:M47" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A5:M47" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{F1ED0188-0EC4-4445-B56B-B9849FE1BE22}" name="Nr Radiomics" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{54631EBD-F548-41F6-B0A0-DE5D5B6F1F6C}" name="totalBlack"/>
+    <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="americaner"/>
+    <tableColumn id="4" xr3:uid="{CFA133B6-EF73-4F0C-8565-6D13CF613C79}" name="größte prozentualte Abweichung" dataDxfId="2" dataCellStyle="Prozent">
+      <calculatedColumnFormula>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{06715B89-C613-4059-A118-EF262F2D654E}" name="." dataDxfId="0" dataCellStyle="Prozent"/>
+    <tableColumn id="6" xr3:uid="{0AD8A83E-64A1-45ED-866F-6B5F9B20F1D1}" name="dummy_plain_long_p10" dataDxfId="1" dataCellStyle="Prozent"/>
+    <tableColumn id="7" xr3:uid="{4B10F305-59E1-4980-9A6D-1CEDE8C77650}" name="dummy_plain_lat_p10" dataDxfId="9" dataCellStyle="Prozent"/>
+    <tableColumn id="8" xr3:uid="{DBB48C6C-BE68-4750-AD9F-FE6B7750E8C5}" name="dummy_plain_diag_p10" dataDxfId="8" dataCellStyle="Prozent"/>
+    <tableColumn id="9" xr3:uid="{2B2F218E-066C-4932-A685-C92FC9D53632}" name="dummy_caro_p10" dataDxfId="7" dataCellStyle="Prozent"/>
+    <tableColumn id="10" xr3:uid="{BC1FBB6B-9204-455D-A460-E708ACE55AEA}" name="dummy_plain_long_p5" dataDxfId="6" dataCellStyle="Prozent"/>
+    <tableColumn id="11" xr3:uid="{2088AA04-E1DF-4169-B50D-0DB87F2E2355}" name="dummy_plain_lat_p5" dataDxfId="5" dataCellStyle="Prozent"/>
+    <tableColumn id="12" xr3:uid="{1668A182-E652-437E-A61D-E78EA1C00653}" name="dummy_plain_diag_p5" dataDxfId="4" dataCellStyle="Prozent"/>
+    <tableColumn id="13" xr3:uid="{5847F909-C42E-4C2F-9FE6-5B9E5F3DE210}" name="dummy_caro_p5" dataDxfId="3" dataCellStyle="Prozent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,229 +1018,2207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBF7E9-4513-481D-814D-8B961E8D7C64}">
-  <dimension ref="A1:A42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE9F08D-8687-4A4B-9A20-EFAFFA74EC70}">
+  <dimension ref="A5:X379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B6" s="6">
+        <v>134.37891734265</v>
+      </c>
+      <c r="C6" s="6">
+        <v>573.17428695477997</v>
+      </c>
+      <c r="D6" s="7">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>4.265358720618762</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9">
+        <v>992.25</v>
+      </c>
+      <c r="G6" s="9">
+        <v>992.25</v>
+      </c>
+      <c r="H6" s="9">
+        <v>991.03449999999998</v>
+      </c>
+      <c r="I6" s="9">
+        <v>992.25</v>
+      </c>
+      <c r="J6" s="9">
+        <v>952.56</v>
+      </c>
+      <c r="K6" s="9">
+        <v>952.56</v>
+      </c>
+      <c r="L6" s="9">
+        <v>971.38789999999995</v>
+      </c>
+      <c r="M6" s="9">
+        <v>990.66240000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B7">
+        <v>1.3886850116087099</v>
+      </c>
+      <c r="C7">
+        <v>3.82728361585737E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>2.7560487683406958E-2</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B8">
+        <v>2.2337204016183398</v>
+      </c>
+      <c r="C8">
+        <v>-1.86556239612957</v>
+      </c>
+      <c r="D8" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>-0.83518169721598201</v>
+      </c>
+      <c r="E8" s="16"/>
+      <c r="F8" s="10">
+        <v>-2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>-19951</v>
+      </c>
+      <c r="I8" s="10">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>-18333</v>
+      </c>
+      <c r="K8" s="9">
+        <v>-18333</v>
+      </c>
+      <c r="L8" s="9">
+        <v>-19141</v>
+      </c>
+      <c r="M8" s="9">
+        <v>-19936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B9" s="13">
+        <v>2.4892149386122001E-3</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2.86100569135583E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>11.493606465944289</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B10" s="18">
+        <v>14.252357255349599</v>
+      </c>
+      <c r="C10" s="18">
+        <v>14.2653654660991</v>
+      </c>
+      <c r="D10" s="19">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.0009127059135863</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B11">
+        <v>0.94319714156349599</v>
+      </c>
+      <c r="C11">
+        <v>0.96462525037383695</v>
+      </c>
+      <c r="D11" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.0227185896416315</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="9">
+        <v>15620</v>
+      </c>
+      <c r="G11" s="9">
+        <v>15620</v>
+      </c>
+      <c r="H11" s="9">
+        <v>17030</v>
+      </c>
+      <c r="I11" s="9">
+        <v>17774</v>
+      </c>
+      <c r="J11" s="9">
+        <v>18161</v>
+      </c>
+      <c r="K11" s="9">
+        <v>18161</v>
+      </c>
+      <c r="L11" s="9">
+        <v>19324</v>
+      </c>
+      <c r="M11" s="9">
+        <v>19741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B12">
+        <v>0.41331080199064602</v>
+      </c>
+      <c r="C12">
+        <v>0.54979124664533396</v>
+      </c>
+      <c r="D12" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.3302126244882821</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B13">
+        <v>4.9444948915902598E-3</v>
+      </c>
+      <c r="C13">
+        <v>4.1155629107421602E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.83235254580645412</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B14">
+        <v>9.0656813894223394</v>
+      </c>
+      <c r="C14">
+        <v>7.8094061147113001</v>
+      </c>
+      <c r="D14" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.86142516808754865</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="11">
+        <v>3.6621000000000001</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3.6621000000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>3.6215000000000002</v>
+      </c>
+      <c r="I14" s="11">
+        <v>3.6621000000000001</v>
+      </c>
+      <c r="J14" s="11">
+        <v>3.4134000000000002</v>
+      </c>
+      <c r="K14" s="11">
+        <v>3.4134000000000002</v>
+      </c>
+      <c r="L14" s="11">
+        <v>3.4821</v>
+      </c>
+      <c r="M14" s="11">
+        <v>3.7128000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B15">
+        <v>3.0626406749298101E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.9221503906226698E-2</v>
+      </c>
+      <c r="D15" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.6071589562936488</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="11">
+        <v>0.61034999999999995</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.61034999999999995</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.60968</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.61034999999999995</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.58501000000000003</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.58501000000000003</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.59708000000000006</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.60929999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B16">
+        <v>2.7412687759434098</v>
+      </c>
+      <c r="C16">
+        <v>2.3001205094108998</v>
+      </c>
+      <c r="D16" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.83907150207090209</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B17">
+        <v>0.89477249730697195</v>
+      </c>
+      <c r="C17">
+        <v>0.84943858382700799</v>
+      </c>
+      <c r="D17" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.94933470394272623</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B18">
+        <v>1.64738431048262</v>
+      </c>
+      <c r="C18">
+        <v>6.2671254789951503</v>
+      </c>
+      <c r="D18" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>3.8042886769749096</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="9">
+        <v>804847</v>
+      </c>
+      <c r="G18" s="9">
+        <v>804847</v>
+      </c>
+      <c r="H18" s="9">
+        <v>472115</v>
+      </c>
+      <c r="I18" s="9">
+        <v>329121</v>
+      </c>
+      <c r="J18" s="9">
+        <v>397624</v>
+      </c>
+      <c r="K18" s="9">
+        <v>397624</v>
+      </c>
+      <c r="L18" s="9">
+        <v>235524</v>
+      </c>
+      <c r="M18" s="9">
+        <v>168160</v>
+      </c>
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B19">
+        <v>2.57469882473336E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5830479995548501E-2</v>
+      </c>
+      <c r="D19" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.0032427772682713</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B20" s="6">
+        <v>0.76082417943955105</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.68551103815709802</v>
+      </c>
+      <c r="D20" s="7">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.90101110963911368</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B21">
+        <v>0.85124547882877699</v>
+      </c>
+      <c r="C21">
+        <v>0.64771657471204003</v>
+      </c>
+      <c r="D21" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.76090456962335817</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B22">
+        <v>1.9810511968967399E-2</v>
+      </c>
+      <c r="C22">
+        <v>3.2887752814288802E-2</v>
+      </c>
+      <c r="D22" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.6601162486767898</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X22" s="1"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B23">
+        <v>554.91359724294705</v>
+      </c>
+      <c r="C23">
+        <v>670.83182221553102</v>
+      </c>
+      <c r="D23" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.2088941873987524</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="9">
+        <v>25000</v>
+      </c>
+      <c r="G23" s="9">
+        <v>25000</v>
+      </c>
+      <c r="H23" s="9">
+        <v>24783</v>
+      </c>
+      <c r="I23" s="9">
+        <v>25000</v>
+      </c>
+      <c r="J23" s="9">
+        <v>24659</v>
+      </c>
+      <c r="K23" s="9">
+        <v>24659</v>
+      </c>
+      <c r="L23" s="9">
+        <v>24806</v>
+      </c>
+      <c r="M23" s="9">
+        <v>25024</v>
+      </c>
+      <c r="X23" s="1"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B24">
+        <v>872.27338274901501</v>
+      </c>
+      <c r="C24">
+        <v>1064.45735260268</v>
+      </c>
+      <c r="D24" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.2203253861168928</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B25">
+        <v>8.7022395124079308E-3</v>
+      </c>
+      <c r="C25">
+        <v>2.6032083077960999E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.29914234193213857</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="9">
+        <v>13874</v>
+      </c>
+      <c r="M25" s="9">
+        <v>12052</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B26" s="2">
+        <v>1.9143938158498701E-5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>4.83412894108827E-6</v>
+      </c>
+      <c r="D26" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.25251486402980367</v>
+      </c>
+      <c r="E26" s="16"/>
+      <c r="F26" s="9">
+        <v>503030</v>
+      </c>
+      <c r="G26" s="9">
+        <v>503030</v>
+      </c>
+      <c r="H26" s="9">
+        <v>301993</v>
+      </c>
+      <c r="I26" s="9">
+        <v>205701</v>
+      </c>
+      <c r="J26" s="9">
+        <v>282236</v>
+      </c>
+      <c r="K26" s="9">
+        <v>282236</v>
+      </c>
+      <c r="L26" s="9">
+        <v>161942</v>
+      </c>
+      <c r="M26" s="9">
+        <v>88606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B27">
+        <v>0.52585659280836905</v>
+      </c>
+      <c r="C27">
+        <v>0.58385541969906496</v>
+      </c>
+      <c r="D27" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.1102939997023706</v>
+      </c>
+      <c r="E27" s="16"/>
+      <c r="F27" s="9">
+        <v>2012118</v>
+      </c>
+      <c r="G27" s="9">
+        <v>2012118</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1152604</v>
+      </c>
+      <c r="I27" s="9">
+        <v>822803</v>
+      </c>
+      <c r="J27" s="9">
+        <v>859176</v>
+      </c>
+      <c r="K27" s="9">
+        <v>859176</v>
+      </c>
+      <c r="L27" s="9">
+        <v>529855</v>
+      </c>
+      <c r="M27" s="9">
+        <v>486377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B28">
+        <v>1616.2406895280201</v>
+      </c>
+      <c r="C28">
+        <v>24381.35111023</v>
+      </c>
+      <c r="D28" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>15.085222930100789</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="11">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="G28" s="11">
+        <v>2.5769000000000002</v>
+      </c>
+      <c r="H28" s="11">
+        <v>1.0172000000000001</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1.0495000000000001</v>
+      </c>
+      <c r="J28" s="11">
+        <v>3.8094999999999999</v>
+      </c>
+      <c r="K28" s="11">
+        <v>3.8094999999999999</v>
+      </c>
+      <c r="L28" s="11">
+        <v>1.897</v>
+      </c>
+      <c r="M28" s="11">
+        <v>1.5328999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B29">
+        <v>3.2842823140461698E-2</v>
+      </c>
+      <c r="C29">
+        <v>3.8142694801213198E-2</v>
+      </c>
+      <c r="D29" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.1613707700487588</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="11">
+        <v>5.8940999999999999</v>
+      </c>
+      <c r="I29" s="11">
+        <v>7.1146000000000003</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2.6766000000000001</v>
+      </c>
+      <c r="M29" s="11">
+        <v>2.3365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B30">
+        <v>1.38673482530513E-2</v>
+      </c>
+      <c r="C30">
+        <v>1.3306090676521E-2</v>
+      </c>
+      <c r="D30" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.95952668337965741</v>
+      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="11">
+        <v>1.5625E-4</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1.5625E-4</v>
+      </c>
+      <c r="H30" s="11">
+        <v>6.6683999999999997E-3</v>
+      </c>
+      <c r="I30" s="11">
+        <v>9.7656000000000001E-6</v>
+      </c>
+      <c r="J30" s="11">
+        <v>7.0529999999999996E-4</v>
+      </c>
+      <c r="K30" s="11">
+        <v>7.0529999999999996E-4</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.21054999999999999</v>
+      </c>
+      <c r="M30" s="11">
+        <v>9.8125999999999999E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B31">
+        <v>502.474239462855</v>
+      </c>
+      <c r="C31">
+        <v>616.93068191306099</v>
+      </c>
+      <c r="D31" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.2277856922029673</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="10">
+        <v>64000000</v>
+      </c>
+      <c r="G31" s="10">
+        <v>64000000</v>
+      </c>
+      <c r="H31" s="10">
+        <v>21393600</v>
+      </c>
+      <c r="I31" s="11">
+        <v>10240000000000</v>
+      </c>
+      <c r="J31" s="10">
+        <v>16640000</v>
+      </c>
+      <c r="K31" s="10">
+        <v>16640000</v>
+      </c>
+      <c r="L31" s="10">
+        <v>5491600</v>
+      </c>
+      <c r="M31" s="11">
+        <v>10256000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B32" s="13">
+        <v>7.99646099859328E-2</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.96609788957646203</v>
+      </c>
+      <c r="D32" s="14">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>12.081568205565135</v>
+      </c>
+      <c r="E32" s="16"/>
+      <c r="F32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B33">
+        <v>0.262418942278828</v>
+      </c>
+      <c r="C33">
+        <v>0.31853709953519099</v>
+      </c>
+      <c r="D33" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.2138494910810811</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B34">
+        <v>0.13864499060618801</v>
+      </c>
+      <c r="C34">
+        <v>0.122970403237603</v>
+      </c>
+      <c r="D34" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.88694443773228238</v>
+      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.3125</v>
+      </c>
+      <c r="J34" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="K34" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="L34" s="11">
+        <v>5</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B35">
+        <v>4.4574875909837103E-3</v>
+      </c>
+      <c r="C35">
+        <v>2.03731230460259E-3</v>
+      </c>
+      <c r="D35" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.45705394866909349</v>
+      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B36">
+        <v>663.12665929203501</v>
+      </c>
+      <c r="C36">
+        <v>1024.4890959555901</v>
+      </c>
+      <c r="D36" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.5449372779694177</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="G36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="H36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="I36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="J36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="K36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="L36" s="9">
+        <v>25000</v>
+      </c>
+      <c r="M36" s="9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B37">
+        <v>1.80159019722937E-3</v>
+      </c>
+      <c r="C37">
+        <v>8.0272094235240296E-4</v>
+      </c>
+      <c r="D37" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.44556245009930207</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="11">
+        <v>9.7656000000000001E-5</v>
+      </c>
+      <c r="G37" s="11">
+        <v>9.7656000000000001E-5</v>
+      </c>
+      <c r="H37" s="11">
+        <v>3.3475000000000002E-3</v>
+      </c>
+      <c r="I37" s="11">
+        <v>6.1035000000000001E-6</v>
+      </c>
+      <c r="J37" s="11">
+        <v>3.3908000000000001E-4</v>
+      </c>
+      <c r="K37" s="11">
+        <v>3.3908000000000001E-4</v>
+      </c>
+      <c r="L37" s="11">
+        <v>5.9679000000000003E-2</v>
+      </c>
+      <c r="M37" s="11">
+        <v>6.4268E-6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B38">
+        <v>356.36274881581397</v>
+      </c>
+      <c r="C38">
+        <v>605.98062568427099</v>
+      </c>
+      <c r="D38" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.7004600724905508</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="11">
+        <v>3.9062E-4</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3.9062E-4</v>
+      </c>
+      <c r="H38" s="11">
+        <v>1.9952000000000001E-2</v>
+      </c>
+      <c r="I38" s="11">
+        <v>2.4414E-5</v>
+      </c>
+      <c r="J38" s="11">
+        <v>2.1700999999999999E-3</v>
+      </c>
+      <c r="K38" s="11">
+        <v>2.1700999999999999E-3</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0.81405000000000005</v>
+      </c>
+      <c r="M38" s="11">
+        <v>2.3356000000000001E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B39">
+        <v>105.37469959390801</v>
+      </c>
+      <c r="C39">
+        <v>3631.3438330672602</v>
+      </c>
+      <c r="D39" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>34.461249683858625</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="10">
+        <v>40000000</v>
+      </c>
+      <c r="G39" s="10">
+        <v>40000000</v>
+      </c>
+      <c r="H39" s="10">
+        <v>13774800</v>
+      </c>
+      <c r="I39" s="10">
+        <v>640000000</v>
+      </c>
+      <c r="J39" s="10">
+        <v>12800000</v>
+      </c>
+      <c r="K39" s="10">
+        <v>12800000</v>
+      </c>
+      <c r="L39" s="10">
+        <v>4028500</v>
+      </c>
+      <c r="M39" s="10">
+        <v>610304000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B40">
+        <v>628652.93408923305</v>
+      </c>
+      <c r="C40">
+        <v>524509.12539651105</v>
+      </c>
+      <c r="D40" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.8343381490080829</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="10">
+        <v>160000000</v>
+      </c>
+      <c r="G40" s="10">
+        <v>160000000</v>
+      </c>
+      <c r="H40" s="10">
+        <v>51868800</v>
+      </c>
+      <c r="I40" s="11">
+        <v>25600000000000</v>
+      </c>
+      <c r="J40" s="10">
+        <v>32000000</v>
+      </c>
+      <c r="K40" s="10">
+        <v>32000000</v>
+      </c>
+      <c r="L40" s="10">
+        <v>11344000</v>
+      </c>
+      <c r="M40" s="11">
+        <v>26870000000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B41">
+        <v>1.0159604225568601E-4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.7442027826775101E-5</v>
+      </c>
+      <c r="D41" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.17168018989242592</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="11">
+        <v>2.4414000000000002E-2</v>
+      </c>
+      <c r="G41" s="11">
+        <v>2.4414000000000002E-2</v>
+      </c>
+      <c r="H41" s="11">
+        <v>3.0980999999999999E-3</v>
+      </c>
+      <c r="I41" s="11">
+        <v>6.1035000000000004E-3</v>
+      </c>
+      <c r="J41" s="11">
+        <v>4.0689999999999997E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <v>4.0689999999999997E-2</v>
+      </c>
+      <c r="L41" s="11">
+        <v>3.0113000000000002E-3</v>
+      </c>
+      <c r="M41" s="11">
+        <v>5.8688000000000004E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B42" s="2">
+        <v>2.7829398112194999E-6</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.9563755240274599E-6</v>
+      </c>
+      <c r="D42" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.0623210434191745</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="9">
+        <v>624998</v>
+      </c>
+      <c r="G42" s="9">
+        <v>624998</v>
+      </c>
+      <c r="H42" s="9">
+        <v>26512</v>
+      </c>
+      <c r="I42" s="9">
+        <v>2499998</v>
+      </c>
+      <c r="J42" s="9">
+        <v>270832</v>
+      </c>
+      <c r="K42" s="9">
+        <v>270832</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M42" s="9">
+        <v>2407690</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B43">
+        <v>4.5192305856570699E-4</v>
+      </c>
+      <c r="C43">
+        <v>4.9336800087102601E-4</v>
+      </c>
+      <c r="D43" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.0917079611667859</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="11">
+        <v>2.7715999999999998</v>
+      </c>
+      <c r="G43" s="11">
+        <v>2.7715999999999998</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1.7411000000000001</v>
+      </c>
+      <c r="I43" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="J43" s="11">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="K43" s="11">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.87336000000000003</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0.83669000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B44">
+        <v>0.15763360169356899</v>
+      </c>
+      <c r="C44">
+        <v>0.216033581741082</v>
+      </c>
+      <c r="D44" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.3704792596253643</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B45">
+        <v>5.0222795235218403</v>
+      </c>
+      <c r="C45">
+        <v>4.0760544272338697</v>
+      </c>
+      <c r="D45" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.81159449770640479</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="11">
+        <v>36081000</v>
+      </c>
+      <c r="G45" s="11">
+        <v>36081000</v>
+      </c>
+      <c r="H45" s="11">
+        <v>64175000</v>
+      </c>
+      <c r="I45" s="11">
+        <v>64514000</v>
+      </c>
+      <c r="J45" s="11">
+        <v>193290000</v>
+      </c>
+      <c r="K45" s="11">
+        <v>193290000</v>
+      </c>
+      <c r="L45" s="11">
+        <v>202660000</v>
+      </c>
+      <c r="M45" s="11">
+        <v>106710000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B46">
+        <v>716.59722964407104</v>
+      </c>
+      <c r="C46">
+        <v>703.32270335504302</v>
+      </c>
+      <c r="D46" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>0.98147561037094522</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B47">
+        <v>0.29559380636662902</v>
+      </c>
+      <c r="C47">
+        <v>0.43238238926064998</v>
+      </c>
+      <c r="D47" s="4">
+        <f>(Tabelle3[[#This Row],[americaner]]/Tabelle3[[#This Row],[totalBlack]])</f>
+        <v>1.4627586233128316</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="11">
+        <v>2.7715999999999998</v>
+      </c>
+      <c r="G47" s="11">
+        <v>2.7715999999999998</v>
+      </c>
+      <c r="H47" s="11">
+        <v>1.7411000000000001</v>
+      </c>
+      <c r="I47" s="11">
+        <v>1.55</v>
+      </c>
+      <c r="J47" s="11">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="K47" s="11">
+        <v>1.2934000000000001</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0.87329999999999997</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0.83669000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="8"/>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L67" s="8"/>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="8"/>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L79" s="8"/>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L82" s="8"/>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L83" s="8"/>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="8"/>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="8"/>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L108" s="8"/>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" s="8"/>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="8"/>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L117" s="2"/>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L120" s="8"/>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L125" s="8"/>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L128" s="8"/>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L129" s="8"/>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L132" s="2"/>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L136" s="2"/>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L138" s="8"/>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L140" s="2"/>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L143" s="2"/>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L144" s="8"/>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L145" s="2"/>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L147" s="2"/>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L149" s="2"/>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L154" s="8"/>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L159" s="8"/>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L163" s="2"/>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L166" s="8"/>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L171" s="8"/>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L174" s="8"/>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L175" s="8"/>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L179" s="2"/>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L182" s="2"/>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L184" s="8"/>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L185" s="2"/>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L186" s="2"/>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L190" s="8"/>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L191" s="2"/>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L193" s="2"/>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L195" s="2"/>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L200" s="8"/>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L202" s="8"/>
+    </row>
+    <row r="205" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L205" s="8"/>
+    </row>
+    <row r="208" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L208" s="2"/>
+    </row>
+    <row r="209" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L209" s="2"/>
+    </row>
+    <row r="212" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L212" s="8"/>
+    </row>
+    <row r="217" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L217" s="8"/>
+    </row>
+    <row r="220" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L220" s="8"/>
+    </row>
+    <row r="221" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L221" s="8"/>
+    </row>
+    <row r="222" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L222" s="2"/>
+    </row>
+    <row r="224" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L224" s="2"/>
+    </row>
+    <row r="228" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L228" s="2"/>
+    </row>
+    <row r="230" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L230" s="8"/>
+    </row>
+    <row r="231" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L231" s="2"/>
+    </row>
+    <row r="232" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L232" s="2"/>
+    </row>
+    <row r="235" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L235" s="2"/>
+    </row>
+    <row r="236" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L236" s="8"/>
+    </row>
+    <row r="237" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L237" s="2"/>
+    </row>
+    <row r="239" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L239" s="2"/>
+    </row>
+    <row r="241" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L241" s="2"/>
+    </row>
+    <row r="246" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L246" s="8"/>
+    </row>
+    <row r="248" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L248" s="8"/>
+    </row>
+    <row r="251" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L251" s="8"/>
+    </row>
+    <row r="254" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L254" s="2"/>
+    </row>
+    <row r="255" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L255" s="2"/>
+    </row>
+    <row r="258" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L258" s="8"/>
+    </row>
+    <row r="263" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L263" s="8"/>
+    </row>
+    <row r="266" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L266" s="8"/>
+    </row>
+    <row r="267" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L267" s="8"/>
+    </row>
+    <row r="268" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L268" s="2"/>
+    </row>
+    <row r="270" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L270" s="2"/>
+    </row>
+    <row r="274" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L274" s="2"/>
+    </row>
+    <row r="276" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L276" s="8"/>
+    </row>
+    <row r="277" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L277" s="2"/>
+    </row>
+    <row r="278" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L278" s="2"/>
+    </row>
+    <row r="281" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L281" s="2"/>
+    </row>
+    <row r="282" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L282" s="8"/>
+    </row>
+    <row r="283" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L283" s="2"/>
+    </row>
+    <row r="285" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L285" s="2"/>
+    </row>
+    <row r="287" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L287" s="2"/>
+    </row>
+    <row r="292" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L292" s="8"/>
+    </row>
+    <row r="294" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L294" s="8"/>
+    </row>
+    <row r="297" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L297" s="8"/>
+    </row>
+    <row r="300" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L300" s="2"/>
+    </row>
+    <row r="301" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L301" s="2"/>
+    </row>
+    <row r="304" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L304" s="8"/>
+    </row>
+    <row r="309" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L309" s="8"/>
+    </row>
+    <row r="311" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L311" s="8"/>
+    </row>
+    <row r="312" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L312" s="8"/>
+    </row>
+    <row r="313" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L313" s="8"/>
+    </row>
+    <row r="314" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L314" s="2"/>
+    </row>
+    <row r="315" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L315" s="2"/>
+    </row>
+    <row r="316" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L316" s="2"/>
+    </row>
+    <row r="320" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L320" s="2"/>
+    </row>
+    <row r="322" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L322" s="8"/>
+    </row>
+    <row r="323" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L323" s="2"/>
+    </row>
+    <row r="324" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L324" s="2"/>
+    </row>
+    <row r="327" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L327" s="2"/>
+    </row>
+    <row r="329" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L329" s="2"/>
+    </row>
+    <row r="331" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L331" s="2"/>
+    </row>
+    <row r="333" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L333" s="2"/>
+    </row>
+    <row r="338" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L338" s="8"/>
+    </row>
+    <row r="340" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L340" s="8"/>
+    </row>
+    <row r="343" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L343" s="8"/>
+    </row>
+    <row r="346" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L346" s="2"/>
+    </row>
+    <row r="347" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L347" s="2"/>
+    </row>
+    <row r="350" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L350" s="8"/>
+    </row>
+    <row r="355" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L355" s="8"/>
+    </row>
+    <row r="357" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L357" s="8"/>
+    </row>
+    <row r="358" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L358" s="8"/>
+    </row>
+    <row r="359" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L359" s="8"/>
+    </row>
+    <row r="360" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L360" s="2"/>
+    </row>
+    <row r="361" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L361" s="2"/>
+    </row>
+    <row r="362" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L362" s="2"/>
+    </row>
+    <row r="363" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L363" s="2"/>
+    </row>
+    <row r="366" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L366" s="2"/>
+    </row>
+    <row r="368" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L368" s="8"/>
+    </row>
+    <row r="369" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L369" s="2"/>
+    </row>
+    <row r="370" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L370" s="2"/>
+    </row>
+    <row r="372" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L372" s="2"/>
+    </row>
+    <row r="373" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L373" s="2"/>
+    </row>
+    <row r="374" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L374" s="8"/>
+    </row>
+    <row r="375" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L375" s="2"/>
+    </row>
+    <row r="377" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L377" s="2"/>
+    </row>
+    <row r="379" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L379" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>